--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\multiprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939924F8-D714-4D61-B0D5-F26D56006A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295942CF-D9B6-493A-BA9E-F8E3C232F10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1656" windowWidth="17280" windowHeight="10704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="1032" windowWidth="17280" windowHeight="10704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Processes Count</t>
   </si>
   <si>
     <t>Time, sec</t>
+  </si>
+  <si>
+    <t>Processor:</t>
+  </si>
+  <si>
+    <t>Intel Core i5-8265, 1.6 гц</t>
+  </si>
+  <si>
+    <t>Number of Cores</t>
   </si>
 </sst>
 </file>
@@ -1157,14 +1166,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
@@ -1457,15 +1466,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1554,6 +1565,22 @@
       </c>
       <c r="B11" s="1">
         <v>9.19</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
